--- a/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
@@ -3584,12 +3584,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>331</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3599,12 +3599,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7809,12 +7809,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>1106</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7824,12 +7824,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">

--- a/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4769,7 +4769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>494</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>892</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>334</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>418</t>
+          <t>567</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2093</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6928</t>
+          <t>8765</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4836</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9745</t>
+          <t>11916</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6933</t>
+          <t>8991</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4840</t>
+          <t>6651</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9912</t>
+          <t>12142</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>13861</t>
+          <t>17756</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10764</t>
+          <t>13926</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>17467</t>
+          <t>21922</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46779</t>
+          <t>49452</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41788</t>
+          <t>43800</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>52304</t>
+          <t>55240</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39614</t>
+          <t>47366</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>34785</t>
+          <t>42160</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>44594</t>
+          <t>53864</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>86393</t>
+          <t>96818</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>79147</t>
+          <t>89593</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>93054</t>
+          <t>105333</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>29,26%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>31,52%</t>
+          <t>30,65%</t>
         </is>
       </c>
     </row>
@@ -1073,32 +1073,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95170</t>
+          <t>108789</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>89748</t>
+          <t>102500</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>100177</t>
+          <t>114421</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>64,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,14%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1108,32 +1108,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>98727</t>
+          <t>118884</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93370</t>
+          <t>112187</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>103823</t>
+          <t>124551</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,63%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>63,96%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>71,12%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1143,32 +1143,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>193897</t>
+          <t>227672</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>185802</t>
+          <t>219368</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200820</t>
+          <t>235657</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>68,58%</t>
         </is>
       </c>
     </row>
@@ -1186,17 +1186,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>149223</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1221,17 +1221,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>145989</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>295212</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>925</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>371</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1514</t>
+          <t>2075</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>868</t>
+          <t>892</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>353</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2123</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1503</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>749</t>
+          <t>963</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>3306</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3460</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2035</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5246</t>
+          <t>6092</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4061</t>
+          <t>4655</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6261</t>
+          <t>6986</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7521</t>
+          <t>8625</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5486</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>10380</t>
+          <t>11589</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -1529,32 +1529,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26071</t>
+          <t>25862</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22162</t>
+          <t>21998</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29999</t>
+          <t>29911</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,55%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,3%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1564,32 +1564,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39096</t>
+          <t>39151</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34578</t>
+          <t>34604</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43596</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>31,4%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,58%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1599,32 +1599,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>65167</t>
+          <t>65013</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>59371</t>
+          <t>59298</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>71311</t>
+          <t>71775</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>30,8%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -1642,32 +1642,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52477</t>
+          <t>62125</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48745</t>
+          <t>57822</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>56684</t>
+          <t>66179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>63,5%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,98%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>68,59%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1677,32 +1677,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>66109</t>
+          <t>80887</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61751</t>
+          <t>76119</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>70867</t>
+          <t>85843</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>60,03%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>64,35%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1712,32 +1712,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>118586</t>
+          <t>143012</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>112310</t>
+          <t>135958</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>125180</t>
+          <t>148682</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>58,26%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>64,94%</t>
+          <t>68,06%</t>
         </is>
       </c>
     </row>
@@ -1755,17 +1755,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>82643</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1790,17 +1790,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>110134</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1825,17 +1825,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>192777</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1173</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>770</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2343</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>940</t>
+          <t>801</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>306</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2089</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2113</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1193</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3583</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1985,32 +1985,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>6796</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4395</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9226</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2020,32 +2020,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2586</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1520</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4401</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2055,32 +2055,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>9159</t>
+          <t>9894</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>6714</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>11788</t>
+          <t>12944</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -2098,32 +2098,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>60787</t>
+          <t>56703</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>55334</t>
+          <t>51599</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66426</t>
+          <t>62843</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,65%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2133,32 +2133,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22424</t>
+          <t>21127</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19249</t>
+          <t>18120</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25795</t>
+          <t>24351</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2168,32 +2168,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>83211</t>
+          <t>77830</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>76607</t>
+          <t>71982</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>89967</t>
+          <t>83722</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>33,54%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>39,39%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -2211,32 +2211,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>95909</t>
+          <t>92000</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>90523</t>
+          <t>86018</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>102115</t>
+          <t>97782</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,32%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,05%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>38011</t>
+          <t>36348</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>34653</t>
+          <t>32984</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>41260</t>
+          <t>39627</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>54,18%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,51%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2281,32 +2281,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>133919</t>
+          <t>128347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>126997</t>
+          <t>122262</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>140532</t>
+          <t>134775</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>58,63%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>55,6%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>61,53%</t>
+          <t>61,67%</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>164441</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2359,17 +2359,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>63961</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2394,17 +2394,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>228402</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2441,32 +2441,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3405</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5373</t>
+          <t>5872</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,32 +2476,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5385</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6504</t>
+          <t>6800</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>4878</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9261</t>
+          <t>9540</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -2554,32 +2554,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6919</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4862</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9358</t>
+          <t>10005</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,32 +2589,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7815</t>
+          <t>9270</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5753</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>10362</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,32 +2624,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>14734</t>
+          <t>16674</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>11671</t>
+          <t>13549</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>18236</t>
+          <t>20474</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -2667,32 +2667,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>56288</t>
+          <t>55973</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50598</t>
+          <t>50542</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>62142</t>
+          <t>61263</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2702,32 +2702,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>60303</t>
+          <t>61921</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>54657</t>
+          <t>55386</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>65960</t>
+          <t>67716</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2737,22 +2737,22 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>116591</t>
+          <t>117894</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>108880</t>
+          <t>110513</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>124217</t>
+          <t>126408</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>34,78%</t>
         </is>
       </c>
     </row>
@@ -2780,32 +2780,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>109486</t>
+          <t>107966</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>103513</t>
+          <t>102222</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>115183</t>
+          <t>113743</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>62,17%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,78%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>65,41%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2815,32 +2815,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>110799</t>
+          <t>114154</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>104668</t>
+          <t>108255</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>116469</t>
+          <t>120846</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>63,99%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2850,32 +2850,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>220285</t>
+          <t>222119</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>212089</t>
+          <t>213590</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>228294</t>
+          <t>229580</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>61,51%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>63,75%</t>
+          <t>63,16%</t>
         </is>
       </c>
     </row>
@@ -2893,17 +2893,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>176098</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2928,17 +2928,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>182017</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2963,17 +2963,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>358115</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3010,32 +3010,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>571</t>
+          <t>490</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1826</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,31%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,32 +3045,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>709</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2471</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,32 +3080,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1802</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1020</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>3215</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -3123,32 +3123,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3243</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1895</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3843</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>5846</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,32 +3193,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>7264</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>5209</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>10082</t>
+          <t>9639</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -3236,32 +3236,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>29315</t>
+          <t>28722</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25626</t>
+          <t>25355</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33090</t>
+          <t>32889</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,07%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,32 +3271,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>49194</t>
+          <t>45484</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>44170</t>
+          <t>40697</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>54852</t>
+          <t>50181</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>36,97%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,19%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>41,22%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,32 +3306,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>78510</t>
+          <t>74206</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>72286</t>
+          <t>68638</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>84981</t>
+          <t>80798</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>40,05%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -3349,17 +3349,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>45960</t>
+          <t>45042</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42099</t>
+          <t>41160</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>50025</t>
+          <t>48874</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3369,12 +3369,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>63,25%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3384,32 +3384,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>78812</t>
+          <t>73071</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>73291</t>
+          <t>68567</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>83767</t>
+          <t>77548</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>55,07%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3419,32 +3419,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>124772</t>
+          <t>118113</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>117748</t>
+          <t>111318</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>131198</t>
+          <t>123914</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>58,81%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>55,5%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -3462,17 +3462,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>79089</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3497,17 +3497,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>133080</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3532,17 +3532,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>212169</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3614,32 +3614,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>896</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>339</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>2153</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,32 +3649,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>896</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>309</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>2143</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -3692,32 +3692,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1810</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>5282</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,32 +3727,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2323</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>3873</t>
+          <t>6855</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,32 +3762,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>6078</t>
+          <t>10221</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -3805,32 +3805,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17352</t>
+          <t>17953</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>14692</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>20187</t>
+          <t>21265</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>31,21%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,32 +3840,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>46985</t>
+          <t>45385</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>41861</t>
+          <t>40805</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>51825</t>
+          <t>50337</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>39,06%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,32 +3875,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>64338</t>
+          <t>63338</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>58551</t>
+          <t>57656</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>70097</t>
+          <t>69292</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>38,45%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -3918,32 +3918,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>27905</t>
+          <t>30250</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>24982</t>
+          <t>27031</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>30640</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>59,29%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>53,08%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>65,1%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,32 +3953,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>69994</t>
+          <t>70927</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>65311</t>
+          <t>66154</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>75433</t>
+          <t>75523</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>58,19%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,32 +3988,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>97899</t>
+          <t>101177</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>91717</t>
+          <t>95213</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>103492</t>
+          <t>107375</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>54,81%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>61,84%</t>
+          <t>62,18%</t>
         </is>
       </c>
     </row>
@@ -4031,17 +4031,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>47067</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4066,17 +4066,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>120278</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4101,17 +4101,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>167345</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4148,32 +4148,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>6131</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>5322</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>8719</t>
+          <t>9949</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,32 +4183,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>7827</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5719</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>10753</t>
+          <t>10408</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,32 +4218,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>13958</t>
+          <t>15305</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>10894</t>
+          <t>12289</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>17625</t>
+          <t>18821</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -4261,32 +4261,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>28932</t>
+          <t>33230</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>24646</t>
+          <t>28586</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>34281</t>
+          <t>38943</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,32 +4296,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>27562</t>
+          <t>34260</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>23585</t>
+          <t>29400</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>32668</t>
+          <t>39337</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,32 +4331,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>56494</t>
+          <t>67490</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>50048</t>
+          <t>60819</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>63070</t>
+          <t>75360</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -4374,32 +4374,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>236593</t>
+          <t>234666</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>225749</t>
+          <t>222425</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>247694</t>
+          <t>245838</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,32 +4409,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>257618</t>
+          <t>260435</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>245771</t>
+          <t>249188</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>269266</t>
+          <t>273714</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,32 +4444,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>494211</t>
+          <t>495101</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>478667</t>
+          <t>478304</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>510285</t>
+          <t>509929</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>33,99%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>32,92%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>33,58%</t>
         </is>
       </c>
     </row>
@@ -4487,32 +4487,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>426906</t>
+          <t>446172</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>415884</t>
+          <t>434751</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>438034</t>
+          <t>458563</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>62,71%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,32 +4522,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>462451</t>
+          <t>494269</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>450062</t>
+          <t>481097</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>473788</t>
+          <t>505872</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>61,21%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>59,57%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>62,72%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,32 +4557,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>889357</t>
+          <t>940441</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>873174</t>
+          <t>924151</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>906625</t>
+          <t>956596</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>61,17%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>60,05%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>62,35%</t>
+          <t>63,0%</t>
         </is>
       </c>
     </row>
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>698562</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4635,17 +4635,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>755458</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4670,17 +4670,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>1454019</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">

--- a/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INSTA_DEPOR-Clase-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>11753</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>7155</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>19062</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>9643</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>5863</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>15559</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>1386</t>
+          <t>21396</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>567</t>
+          <t>14393</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>29689</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>5,2%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8765</t>
+          <t>27810</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6277</t>
+          <t>21180</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11916</t>
+          <t>36084</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8991</t>
+          <t>27811</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6651</t>
+          <t>19831</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12142</t>
+          <t>38295</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>94</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>17756</t>
+          <t>55621</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13926</t>
+          <t>45112</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>21922</t>
+          <t>68758</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>49452</t>
+          <t>153789</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43800</t>
+          <t>140014</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55240</t>
+          <t>169593</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>47,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>57,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>226</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>47366</t>
+          <t>131578</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>42160</t>
+          <t>119291</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>53864</t>
+          <t>145356</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,89%</t>
+          <t>47,74%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>43,28%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>30,58%</t>
+          <t>52,74%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>96818</t>
+          <t>285367</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>89593</t>
+          <t>264855</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>105333</t>
+          <t>307936</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>50,03%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>53,98%</t>
         </is>
       </c>
     </row>
@@ -1068,107 +1068,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>552</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>108789</t>
+          <t>101455</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>102500</t>
+          <t>87497</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>114421</t>
+          <t>115723</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>34,41%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>29,68%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,31%</t>
+          <t>39,25%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>594</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>118884</t>
+          <t>106601</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>112187</t>
+          <t>94650</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>124551</t>
+          <t>120043</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>67,5%</t>
+          <t>38,67%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>63,69%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1146</t>
+          <t>362</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>227672</t>
+          <t>208055</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219368</t>
+          <t>189042</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>235657</t>
+          <t>227299</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>66,25%</t>
+          <t>36,47%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>63,84%</t>
+          <t>33,14%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>39,85%</t>
         </is>
       </c>
     </row>
@@ -1181,22 +1181,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>167499</t>
+          <t>294807</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1216,22 +1216,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>468</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>275632</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>275632</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>176133</t>
+          <t>275632</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1251,22 +1251,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1738</t>
+          <t>983</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>570438</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>570438</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>343632</t>
+          <t>570438</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>925</t>
+          <t>5915</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>3139</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2075</t>
+          <t>11626</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>8097</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>13746</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>24</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1817</t>
+          <t>14012</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>9127</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>3306</t>
+          <t>21331</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>5,01%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3969</t>
+          <t>15798</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>10747</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6092</t>
+          <t>22199</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>8,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4655</t>
+          <t>15573</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2988</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6986</t>
+          <t>22594</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8625</t>
+          <t>31371</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>6400</t>
+          <t>23999</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11589</t>
+          <t>40030</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>5,3%</t>
+          <t>9,4%</t>
         </is>
       </c>
     </row>
@@ -1524,107 +1524,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>25862</t>
+          <t>116506</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21998</t>
+          <t>105166</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29911</t>
+          <t>126764</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,84%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,68%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,2%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>204</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39151</t>
+          <t>120788</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>34604</t>
+          <t>108727</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44221</t>
+          <t>133108</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>47,26%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>35,21%</t>
+          <t>57,86%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>401</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>65013</t>
+          <t>237295</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>59298</t>
+          <t>221173</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>71775</t>
+          <t>254111</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>55,72%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>51,94%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>59,67%</t>
         </is>
       </c>
     </row>
@@ -1637,107 +1637,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>62125</t>
+          <t>57552</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>57822</t>
+          <t>47590</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>66179</t>
+          <t>68058</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,89%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>71,25%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>148</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>80887</t>
+          <t>85609</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>76119</t>
+          <t>73437</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>85843</t>
+          <t>98115</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>64,41%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>60,61%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>748</t>
+          <t>256</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>143012</t>
+          <t>143162</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>135958</t>
+          <t>127722</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>148682</t>
+          <t>160445</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>33,62%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>62,23%</t>
+          <t>29,99%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>68,06%</t>
+          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -1750,22 +1750,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>347</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>92882</t>
+          <t>195772</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>392</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>230067</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>230067</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>125585</t>
+          <t>230067</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1820,22 +1820,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>1169</t>
+          <t>739</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>425839</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>425839</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>218467</t>
+          <t>425839</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1679</t>
+          <t>4236</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>8519</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>1535</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>329</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1698</t>
+          <t>4416</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>5771</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1428</t>
+          <t>2828</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4300</t>
+          <t>10496</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,01%</t>
         </is>
       </c>
     </row>
@@ -1980,107 +1980,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6796</t>
+          <t>15486</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4699</t>
+          <t>10147</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9017</t>
+          <t>21547</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>11,96%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3098</t>
+          <t>5557</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1813</t>
+          <t>2549</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4968</t>
+          <t>10354</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,12%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>39</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>9894</t>
+          <t>21043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>7517</t>
+          <t>14994</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>12944</t>
+          <t>29600</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>11,3%</t>
         </is>
       </c>
     </row>
@@ -2093,107 +2093,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>56703</t>
+          <t>106940</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>51599</t>
+          <t>96828</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>62843</t>
+          <t>116899</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>53,75%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>64,89%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21127</t>
+          <t>47403</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18120</t>
+          <t>40286</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>24351</t>
+          <t>54134</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>57,96%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>66,19%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>298</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>77830</t>
+          <t>154343</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>71982</t>
+          <t>140952</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>83722</t>
+          <t>166678</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>35,61%</t>
+          <t>58,92%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>53,81%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>63,63%</t>
         </is>
       </c>
     </row>
@@ -2206,107 +2206,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>92000</t>
+          <t>53493</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>86018</t>
+          <t>44883</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>97782</t>
+          <t>64704</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,53%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>54,73%</t>
+          <t>24,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>62,21%</t>
+          <t>35,92%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>36348</t>
+          <t>27291</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32984</t>
+          <t>20997</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>39627</t>
+          <t>34036</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>64,57%</t>
+          <t>41,62%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>128347</t>
+          <t>80784</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>122262</t>
+          <t>69299</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>134775</t>
+          <t>93293</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>58,73%</t>
+          <t>30,84%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>55,94%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>35,62%</t>
         </is>
       </c>
     </row>
@@ -2319,22 +2319,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>923</t>
+          <t>344</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180156</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180156</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>157178</t>
+          <t>180156</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2354,22 +2354,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>155</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>81786</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>81786</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>61374</t>
+          <t>81786</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2389,22 +2389,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1292</t>
+          <t>499</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>261942</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>261942</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>218552</t>
+          <t>261942</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2436,72 +2436,72 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3751</t>
+          <t>12884</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2363</t>
+          <t>8247</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5872</t>
+          <t>20563</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>9457</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1785</t>
+          <t>5789</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>15439</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,32 +2511,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>6800</t>
+          <t>22341</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>4878</t>
+          <t>15654</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>9540</t>
+          <t>30958</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -2549,107 +2549,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7403</t>
+          <t>29993</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5206</t>
+          <t>22590</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10005</t>
+          <t>39846</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9270</t>
+          <t>26789</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>6799</t>
+          <t>19070</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>12109</t>
+          <t>36791</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>8,49%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>99</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>16674</t>
+          <t>56782</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>13549</t>
+          <t>45999</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>20474</t>
+          <t>70540</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>11,34%</t>
         </is>
       </c>
     </row>
@@ -2662,107 +2662,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55973</t>
+          <t>160229</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>50542</t>
+          <t>145868</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>61263</t>
+          <t>174099</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>31,97%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>302</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>61921</t>
+          <t>170765</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>55386</t>
+          <t>156492</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>67716</t>
+          <t>184507</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>32,87%</t>
+          <t>54,09%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>58,44%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>600</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>117894</t>
+          <t>330993</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>110513</t>
+          <t>309998</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>126408</t>
+          <t>352098</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>32,43%</t>
+          <t>53,23%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>56,63%</t>
         </is>
       </c>
     </row>
@@ -2775,107 +2775,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>625</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>107966</t>
+          <t>102972</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>102222</t>
+          <t>90634</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>113743</t>
+          <t>116350</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>61,66%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>58,38%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>38,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>114154</t>
+          <t>108693</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>108255</t>
+          <t>95285</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>120846</t>
+          <t>122718</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>34,43%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>64,15%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>392</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>222119</t>
+          <t>211665</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>213590</t>
+          <t>191224</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>229580</t>
+          <t>229974</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>61,11%</t>
+          <t>34,04%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>58,76%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>36,99%</t>
         </is>
       </c>
     </row>
@@ -2888,22 +2888,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>574</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306078</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306078</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>175093</t>
+          <t>306078</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2923,22 +2923,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>554</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>188394</t>
+          <t>315704</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2958,22 +2958,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>621781</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>621781</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>363487</t>
+          <t>621781</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3005,107 +3005,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>4589</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1599</t>
+          <t>8899</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1437</t>
+          <t>6842</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>3456</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>12231</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>11432</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>7077</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>3446</t>
+          <t>17362</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -3118,107 +3118,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3253</t>
+          <t>20865</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>14181</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>29973</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>19,86%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>13846</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>8688</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>6223</t>
+          <t>22014</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>8,97%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>54</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>7264</t>
+          <t>34710</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>5102</t>
+          <t>26181</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>9639</t>
+          <t>47127</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>11,37%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>15,44%</t>
         </is>
       </c>
     </row>
@@ -3231,107 +3231,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>28722</t>
+          <t>87247</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>25355</t>
+          <t>76773</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>32889</t>
+          <t>96219</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,06%</t>
+          <t>57,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,71%</t>
+          <t>50,88%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,43%</t>
+          <t>63,77%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>45484</t>
+          <t>89469</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>40697</t>
+          <t>80123</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>50181</t>
+          <t>99374</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>57,98%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>32,82%</t>
+          <t>51,93%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>64,4%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>432</t>
+          <t>303</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>74206</t>
+          <t>176716</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>68638</t>
+          <t>161670</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>80798</t>
+          <t>190711</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>36,83%</t>
+          <t>57,9%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>52,97%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>40,1%</t>
+          <t>62,49%</t>
         </is>
       </c>
     </row>
@@ -3344,107 +3344,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>45042</t>
+          <t>38192</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>41160</t>
+          <t>30335</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>48874</t>
+          <t>46552</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>58,11%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>53,1%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>63,06%</t>
+          <t>30,85%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>73071</t>
+          <t>44142</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>68567</t>
+          <t>35325</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>77548</t>
+          <t>53059</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>58,93%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>55,29%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>62,54%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>152</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>118113</t>
+          <t>82334</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>111318</t>
+          <t>70997</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>123914</t>
+          <t>96352</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>58,61%</t>
+          <t>26,98%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>55,24%</t>
+          <t>23,26%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>61,49%</t>
+          <t>31,57%</t>
         </is>
       </c>
     </row>
@@ -3457,22 +3457,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>77507</t>
+          <t>150893</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3492,22 +3492,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>124003</t>
+          <t>154299</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3527,22 +3527,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>1198</t>
+          <t>526</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>201510</t>
+          <t>305192</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3609,72 +3609,72 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>757</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>3277</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>896</t>
+          <t>757</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>17,56%</t>
         </is>
       </c>
     </row>
@@ -3687,107 +3687,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>1864</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>388</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5282</t>
+          <t>4503</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>10,31%</t>
+          <t>48,18%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4235</t>
+          <t>536</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>6855</t>
+          <t>2805</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>24,6%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>4730</t>
+          <t>747</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>10221</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>26,71%</t>
         </is>
       </c>
     </row>
@@ -3800,107 +3800,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>17953</t>
+          <t>7008</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15289</t>
+          <t>4451</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>21265</t>
+          <t>8841</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>74,97%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>45385</t>
+          <t>9888</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>40805</t>
+          <t>7391</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>50337</t>
+          <t>11179</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>33,6%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>41,45%</t>
+          <t>98,05%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>63338</t>
+          <t>16897</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>57656</t>
+          <t>13856</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>69292</t>
+          <t>19111</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>33,39%</t>
+          <t>66,77%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>40,13%</t>
+          <t>92,1%</t>
         </is>
       </c>
     </row>
@@ -3913,107 +3913,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>30250</t>
+          <t>476</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>27031</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>2203</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>59,03%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>64,77%</t>
+          <t>23,57%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>1</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>70927</t>
+          <t>220</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>66154</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>75523</t>
+          <t>1212</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>58,4%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>576</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>101177</t>
+          <t>696</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>95213</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>107375</t>
+          <t>2635</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>55,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>12,7%</t>
         </is>
       </c>
     </row>
@@ -4026,22 +4026,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>51246</t>
+          <t>9348</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4061,22 +4061,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>121443</t>
+          <t>11402</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4096,22 +4096,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>33</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>172689</t>
+          <t>20750</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4143,107 +4143,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>7338</t>
+          <t>39378</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>29364</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>9949</t>
+          <t>50029</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>59</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>7967</t>
+          <t>36331</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>5981</t>
+          <t>28189</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>10408</t>
+          <t>47537</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>122</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>15305</t>
+          <t>75709</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>12289</t>
+          <t>63750</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>18821</t>
+          <t>91458</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -4256,107 +4256,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>203</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>33230</t>
+          <t>111816</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>28586</t>
+          <t>96940</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>38943</t>
+          <t>130004</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>145</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>34260</t>
+          <t>90111</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>29400</t>
+          <t>75405</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>39337</t>
+          <t>106968</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>348</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>67490</t>
+          <t>201927</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>60819</t>
+          <t>179492</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>75360</t>
+          <t>224957</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>10,2%</t>
         </is>
       </c>
     </row>
@@ -4369,107 +4369,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>1131</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>234666</t>
+          <t>631719</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>222425</t>
+          <t>604958</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>245838</t>
+          <t>661335</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>55,56%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>30,83%</t>
+          <t>53,2%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>58,16%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>1461</t>
+          <t>991</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>260435</t>
+          <t>569891</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>249188</t>
+          <t>546416</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>273714</t>
+          <t>598453</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>32,68%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>51,12%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>34,35%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>2775</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>495101</t>
+          <t>1201610</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>478304</t>
+          <t>1164319</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>509929</t>
+          <t>1238782</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>32,61%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>31,5%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>56,16%</t>
         </is>
       </c>
     </row>
@@ -4482,107 +4482,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>2485</t>
+          <t>659</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>446172</t>
+          <t>354140</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>434751</t>
+          <t>330328</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>458563</t>
+          <t>381084</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>61,85%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>33,52%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>657</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>494269</t>
+          <t>372557</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>481097</t>
+          <t>346951</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>505872</t>
+          <t>395291</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>62,02%</t>
+          <t>34,85%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>60,37%</t>
+          <t>32,46%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>63,48%</t>
+          <t>36,98%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>5219</t>
+          <t>1316</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>940441</t>
+          <t>726697</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>924151</t>
+          <t>689741</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>956596</t>
+          <t>764253</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>61,94%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>60,87%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>34,65%</t>
         </is>
       </c>
     </row>
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>4009</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137053</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137053</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>721406</t>
+          <t>1137053</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4630,22 +4630,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>4417</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1068890</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1068890</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>796931</t>
+          <t>1068890</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>8426</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2205943</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2205943</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>1518337</t>
+          <t>2205943</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4769,7 +4769,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Instalaciones deportivas en C.Valenciana (tasa de respuesta: 93,38%)</t>
+          <t>Instalaciones deportivas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4954,107 +4954,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11753</t>
+          <t>494</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7155</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19062</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9643</t>
+          <t>892</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5863</t>
+          <t>334</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15559</t>
+          <t>2011</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>21396</t>
+          <t>1386</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14393</t>
+          <t>567</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>29689</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>0,8%</t>
         </is>
       </c>
     </row>
@@ -5067,107 +5067,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27810</t>
+          <t>8765</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21180</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36084</t>
+          <t>11916</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27811</t>
+          <t>8991</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19831</t>
+          <t>6651</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38295</t>
+          <t>12142</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>55621</t>
+          <t>17756</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>45112</t>
+          <t>13926</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>68758</t>
+          <t>21922</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>5,17%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>6,38%</t>
         </is>
       </c>
     </row>
@@ -5180,107 +5180,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>153789</t>
+          <t>49452</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>140014</t>
+          <t>43800</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>169593</t>
+          <t>55240</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>52,17%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,49%</t>
+          <t>26,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>238</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>131578</t>
+          <t>47366</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119291</t>
+          <t>42160</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>145356</t>
+          <t>53864</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>47,74%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>52,74%</t>
+          <t>30,58%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>502</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>285367</t>
+          <t>96818</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>264855</t>
+          <t>89593</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>307936</t>
+          <t>105333</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>28,18%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>26,07%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>53,98%</t>
+          <t>30,65%</t>
         </is>
       </c>
     </row>
@@ -5293,107 +5293,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>552</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>101455</t>
+          <t>108789</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87497</t>
+          <t>102500</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>115723</t>
+          <t>114421</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>64,95%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>594</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>106601</t>
+          <t>118884</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>94650</t>
+          <t>112187</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>120043</t>
+          <t>124551</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>63,69%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>1146</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>208055</t>
+          <t>227672</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>189042</t>
+          <t>219368</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>227299</t>
+          <t>235657</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>66,25%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>33,14%</t>
+          <t>63,84%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>68,58%</t>
         </is>
       </c>
     </row>
@@ -5406,22 +5406,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>858</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>294807</t>
+          <t>167499</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5441,22 +5441,22 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>880</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>275632</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>275632</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>275632</t>
+          <t>176133</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5476,22 +5476,22 @@
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>983</t>
+          <t>1738</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>570438</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>570438</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>570438</t>
+          <t>343632</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5523,107 +5523,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>925</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2075</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,0%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,71%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5915</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3139</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>11626</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>5,94%</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>8097</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>4390</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>13746</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>1,91%</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>5,97%</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>14012</t>
+          <t>1817</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>9127</t>
+          <t>963</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>21331</t>
+          <t>3306</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>1,51%</t>
         </is>
       </c>
     </row>
@@ -5636,107 +5636,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15798</t>
+          <t>3969</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10747</t>
+          <t>2528</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>22199</t>
+          <t>6092</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15573</t>
+          <t>4655</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10736</t>
+          <t>2988</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>22594</t>
+          <t>6986</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>31371</t>
+          <t>8625</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>23999</t>
+          <t>6400</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>40030</t>
+          <t>11589</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>7,37%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -5749,107 +5749,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>116506</t>
+          <t>25862</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>105166</t>
+          <t>21998</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>126764</t>
+          <t>29911</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,51%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>53,72%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>220</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>120788</t>
+          <t>39151</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>108727</t>
+          <t>34604</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>133108</t>
+          <t>44221</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>57,86%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>364</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>237295</t>
+          <t>65013</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>221173</t>
+          <t>59298</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>254111</t>
+          <t>71775</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>55,72%</t>
+          <t>29,76%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>27,14%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>59,67%</t>
+          <t>32,85%</t>
         </is>
       </c>
     </row>
@@ -5862,107 +5862,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>322</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>57552</t>
+          <t>62125</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>47590</t>
+          <t>57822</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>68058</t>
+          <t>66179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,4%</t>
+          <t>66,89%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>24,31%</t>
+          <t>62,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>34,76%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>426</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85609</t>
+          <t>80887</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>73437</t>
+          <t>76119</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>98115</t>
+          <t>85843</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,21%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>60,61%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>748</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>143162</t>
+          <t>143012</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>127722</t>
+          <t>135958</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>160445</t>
+          <t>148682</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>33,62%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>29,99%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>68,06%</t>
         </is>
       </c>
     </row>
@@ -5975,22 +5975,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>195772</t>
+          <t>92882</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6010,22 +6010,22 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>675</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>230067</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>230067</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>230067</t>
+          <t>125585</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6045,22 +6045,22 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>739</t>
+          <t>1169</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>425839</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>425839</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>425839</t>
+          <t>218467</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6092,107 +6092,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4236</t>
+          <t>1679</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>770</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8519</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1535</t>
+          <t>801</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>306</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4416</t>
+          <t>1698</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>5771</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2828</t>
+          <t>1428</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>10496</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -6205,107 +6205,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15486</t>
+          <t>6796</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10147</t>
+          <t>4699</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21547</t>
+          <t>9017</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5557</t>
+          <t>3098</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>1813</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10354</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>53</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>21043</t>
+          <t>9894</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>14994</t>
+          <t>7517</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>29600</t>
+          <t>12944</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -6318,107 +6318,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>328</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>106940</t>
+          <t>56703</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>96828</t>
+          <t>51599</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>116899</t>
+          <t>62843</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>59,36%</t>
+          <t>36,08%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>53,75%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>64,89%</t>
+          <t>39,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>129</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47403</t>
+          <t>21127</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>40286</t>
+          <t>18120</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>54134</t>
+          <t>24351</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>57,96%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>49,26%</t>
+          <t>29,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>66,19%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>457</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>154343</t>
+          <t>77830</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>140952</t>
+          <t>71982</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>166678</t>
+          <t>83722</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>58,92%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>63,63%</t>
+          <t>38,31%</t>
         </is>
       </c>
     </row>
@@ -6431,107 +6431,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>549</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>53493</t>
+          <t>92000</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>44883</t>
+          <t>86018</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>64704</t>
+          <t>97782</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>58,53%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>62,21%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>218</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>27291</t>
+          <t>36348</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20997</t>
+          <t>32984</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>34036</t>
+          <t>39627</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,37%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>25,67%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>41,62%</t>
+          <t>64,57%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>80784</t>
+          <t>128347</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>69299</t>
+          <t>122262</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>93293</t>
+          <t>134775</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>58,73%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>26,46%</t>
+          <t>55,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>61,67%</t>
         </is>
       </c>
     </row>
@@ -6544,22 +6544,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>923</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>180156</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>180156</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>180156</t>
+          <t>157178</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6579,22 +6579,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>369</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>81786</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>81786</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>81786</t>
+          <t>61374</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6614,22 +6614,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>1292</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>261942</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>261942</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>261942</t>
+          <t>218552</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6661,72 +6661,72 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12884</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8247</t>
+          <t>2363</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>20563</t>
+          <t>5872</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9457</t>
+          <t>3049</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>5789</t>
+          <t>1785</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15439</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -6736,32 +6736,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>22341</t>
+          <t>6800</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>15654</t>
+          <t>4878</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>30958</t>
+          <t>9540</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>2,62%</t>
         </is>
       </c>
     </row>
@@ -6774,107 +6774,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29993</t>
+          <t>7403</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>22590</t>
+          <t>5206</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>39846</t>
+          <t>10005</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>26789</t>
+          <t>9270</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>19070</t>
+          <t>6799</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>36791</t>
+          <t>12109</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>91</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>56782</t>
+          <t>16674</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>45999</t>
+          <t>13549</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>70540</t>
+          <t>20474</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>5,63%</t>
         </is>
       </c>
     </row>
@@ -6887,107 +6887,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>160229</t>
+          <t>55973</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>145868</t>
+          <t>50542</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>174099</t>
+          <t>61263</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>52,35%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>56,88%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>337</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>170765</t>
+          <t>61921</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>156492</t>
+          <t>55386</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>184507</t>
+          <t>67716</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>54,09%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>29,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>58,44%</t>
+          <t>35,94%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>661</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>330993</t>
+          <t>117894</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>309998</t>
+          <t>110513</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>352098</t>
+          <t>126408</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>53,23%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>56,63%</t>
+          <t>34,78%</t>
         </is>
       </c>
     </row>
@@ -7000,107 +7000,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>625</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>102972</t>
+          <t>107966</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>90634</t>
+          <t>102222</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>116350</t>
+          <t>113743</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>61,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>58,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>38,01%</t>
+          <t>64,96%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>645</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>108693</t>
+          <t>114154</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>95285</t>
+          <t>108255</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>122718</t>
+          <t>120846</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>60,59%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>57,46%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
+          <t>64,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>1270</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>211665</t>
+          <t>222119</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>191224</t>
+          <t>213590</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>229974</t>
+          <t>229580</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>34,04%</t>
+          <t>61,11%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>63,16%</t>
         </is>
       </c>
     </row>
@@ -7113,22 +7113,22 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>1010</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>306078</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>306078</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>306078</t>
+          <t>175093</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -7148,22 +7148,22 @@
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>1049</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>315704</t>
+          <t>188394</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -7183,22 +7183,22 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2059</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>621781</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>621781</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>621781</t>
+          <t>363487</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -7230,107 +7230,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>490</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>95</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>8899</t>
+          <t>1599</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6842</t>
+          <t>1437</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>709</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>12231</t>
+          <t>2753</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>11432</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>7077</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>17362</t>
+          <t>3446</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -7343,107 +7343,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>20865</t>
+          <t>3253</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14181</t>
+          <t>1999</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>29973</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>13846</t>
+          <t>4011</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>8688</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>22014</t>
+          <t>6223</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>42</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>34710</t>
+          <t>7264</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>26181</t>
+          <t>5102</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>47127</t>
+          <t>9639</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>11,37%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -7456,107 +7456,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>87247</t>
+          <t>28722</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>76773</t>
+          <t>25355</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96219</t>
+          <t>32889</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>32,71%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>42,43%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>271</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>89469</t>
+          <t>45484</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>80123</t>
+          <t>40697</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>99374</t>
+          <t>50181</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>51,93%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>64,4%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>432</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>176716</t>
+          <t>74206</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>161670</t>
+          <t>68638</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>190711</t>
+          <t>80798</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>36,83%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>52,97%</t>
+          <t>34,06%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>62,49%</t>
+          <t>40,1%</t>
         </is>
       </c>
     </row>
@@ -7569,107 +7569,107 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>38192</t>
+          <t>45042</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30335</t>
+          <t>41160</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>46552</t>
+          <t>48874</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>58,11%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>30,85%</t>
+          <t>63,06%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>44142</t>
+          <t>73071</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>35325</t>
+          <t>68567</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>53059</t>
+          <t>77548</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>58,93%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>34,39%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>82334</t>
+          <t>118113</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>70997</t>
+          <t>111318</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>96352</t>
+          <t>123914</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>58,61%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>23,26%</t>
+          <t>55,24%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>31,57%</t>
+          <t>61,49%</t>
         </is>
       </c>
     </row>
@@ -7682,22 +7682,22 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>150893</t>
+          <t>77507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7717,22 +7717,22 @@
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>154299</t>
+          <t>124003</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7752,22 +7752,22 @@
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>1198</t>
         </is>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>305192</t>
+          <t>201510</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7834,72 +7834,72 @@
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>896</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>339</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>1902</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>757</t>
+          <t>896</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>309</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>3643</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>1,13%</t>
         </is>
       </c>
     </row>
@@ -7912,107 +7912,107 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1864</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>4503</t>
+          <t>5282</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,94%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2536</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>6855</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>29</t>
         </is>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>10221</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -8025,107 +8025,107 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>7008</t>
+          <t>17953</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4451</t>
+          <t>15289</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>21265</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>74,97%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>47,62%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>94,58%</t>
+          <t>41,5%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>266</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9888</t>
+          <t>45385</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>7391</t>
+          <t>40805</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>11179</t>
+          <t>50337</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>86,72%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>98,05%</t>
+          <t>41,45%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>359</t>
         </is>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>16897</t>
+          <t>63338</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>13856</t>
+          <t>57656</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>19111</t>
+          <t>69292</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>36,68%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>66,77%</t>
+          <t>33,39%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>40,13%</t>
         </is>
       </c>
     </row>
@@ -8138,107 +8138,107 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>168</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>30250</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27031</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2203</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>59,03%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,75%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>408</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>70927</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66154</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>1212</t>
+          <t>75523</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>58,4%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,47%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>62,19%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>576</t>
         </is>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>101177</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95213</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>107375</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>58,59%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,14%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>62,18%</t>
         </is>
       </c>
     </row>
@@ -8251,22 +8251,22 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>51246</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -8286,22 +8286,22 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>11402</t>
+          <t>121443</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -8321,22 +8321,22 @@
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>970</t>
         </is>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>20750</t>
+          <t>172689</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8368,107 +8368,107 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>39378</t>
+          <t>7338</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>29364</t>
+          <t>5322</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>50029</t>
+          <t>9949</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>3,46%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>36331</t>
+          <t>7967</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>28189</t>
+          <t>5981</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>47537</t>
+          <t>10408</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>75709</t>
+          <t>15305</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>63750</t>
+          <t>12289</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>91458</t>
+          <t>18821</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -8481,107 +8481,107 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>111816</t>
+          <t>33230</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>96940</t>
+          <t>28586</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>130004</t>
+          <t>38943</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>90111</t>
+          <t>34260</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>75405</t>
+          <t>29400</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>106968</t>
+          <t>39337</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>10,01%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>343</t>
         </is>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>201927</t>
+          <t>67490</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>179492</t>
+          <t>60819</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>224957</t>
+          <t>75360</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -8594,107 +8594,107 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>631719</t>
+          <t>234666</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>604958</t>
+          <t>222425</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>661335</t>
+          <t>245838</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>55,56%</t>
+          <t>32,53%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>53,2%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>1461</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>569891</t>
+          <t>260435</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>546416</t>
+          <t>249188</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>598453</t>
+          <t>273714</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>53,32%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>51,12%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>55,99%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>2775</t>
         </is>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>1201610</t>
+          <t>495101</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>1164319</t>
+          <t>478304</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>1238782</t>
+          <t>509929</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>56,16%</t>
+          <t>33,58%</t>
         </is>
       </c>
     </row>
@@ -8707,107 +8707,107 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>2485</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>354140</t>
+          <t>446172</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>330328</t>
+          <t>434751</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>381084</t>
+          <t>458563</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>31,15%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>29,05%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>63,57%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>2734</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>372557</t>
+          <t>494269</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>346951</t>
+          <t>481097</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>395291</t>
+          <t>505872</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>62,02%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>60,37%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>36,98%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>1316</t>
+          <t>5219</t>
         </is>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>726697</t>
+          <t>940441</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>689741</t>
+          <t>924151</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>764253</t>
+          <t>956596</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>32,94%</t>
+          <t>61,94%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>60,87%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>34,65%</t>
+          <t>63,0%</t>
         </is>
       </c>
     </row>
@@ -8820,22 +8820,22 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>2056</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>1137053</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>1137053</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1137053</t>
+          <t>721406</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -8855,22 +8855,22 @@
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>4417</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1068890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>1068890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>1068890</t>
+          <t>796931</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -8890,22 +8890,22 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>3908</t>
+          <t>8426</t>
         </is>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>2205943</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>2205943</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>2205943</t>
+          <t>1518337</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
